--- a/Dokumentit/Testitulokset.xlsx
+++ b/Dokumentit/Testitulokset.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="9765" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="9765" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LZW 18.11" sheetId="1" r:id="rId1"/>
     <sheet name="Huffman 19.11." sheetId="2" r:id="rId2"/>
     <sheet name="LZW 20.11." sheetId="3" r:id="rId3"/>
     <sheet name="Huffman 20.11" sheetId="4" r:id="rId4"/>
+    <sheet name="LZW-testit 3.12." sheetId="5" r:id="rId5"/>
+    <sheet name="Huffman 3.12" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>Purku</t>
   </si>
@@ -56,6 +58,216 @@
   </si>
   <si>
     <t>Purku kB / sec</t>
+  </si>
+  <si>
+    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto1_4k.txt pakkaus...</t>
+  </si>
+  <si>
+    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto2_100k.txt pakkaus...</t>
+  </si>
+  <si>
+    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto3_500k.xml pakkaus...</t>
+  </si>
+  <si>
+    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto4_20M.xml pakkaus...</t>
+  </si>
+  <si>
+    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto5_115M.xml pakkaus...</t>
+  </si>
+  <si>
+    <t>Pakkaus %</t>
+  </si>
+  <si>
+    <t>72,93</t>
+  </si>
+  <si>
+    <t>55,11</t>
+  </si>
+  <si>
+    <t>54,09</t>
+  </si>
+  <si>
+    <t>54,33</t>
+  </si>
+  <si>
+    <t>54,42</t>
+  </si>
+  <si>
+    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto1_4k.huf on jo olemassa, poistetaan..</t>
+  </si>
+  <si>
+    <t>Käytettävä pakkausalgoritmi: huffman</t>
+  </si>
+  <si>
+    <t>Ensimmäinen skannaus valmis, yhteensä luettu 3475 tavua... Konstruktoitu</t>
+  </si>
+  <si>
+    <t>Merkkitaulukot luotu</t>
+  </si>
+  <si>
+    <t>Yhteensä 3475 tavua luettu lähdetiedostosta</t>
+  </si>
+  <si>
+    <t>Yhteensä 2162 tavua dataa kirjoitettu kohdetiedostoon</t>
+  </si>
+  <si>
+    <t>Pakkaustehokkuus: 62.22 % (ei ota huomioon sanaston viemää tilaa)</t>
+  </si>
+  <si>
+    <t>Valmis! Suoritus kesti 51 ms.</t>
+  </si>
+  <si>
+    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto2_100k.huf on jo olemassa, poistetaan..</t>
+  </si>
+  <si>
+    <t>Ensimmäinen skannaus valmis, yhteensä luettu 97834 tavua... Konstruktoitu</t>
+  </si>
+  <si>
+    <t>Yhteensä 97834 tavua luettu lähdetiedostosta</t>
+  </si>
+  <si>
+    <t>Yhteensä 60817 tavua dataa kirjoitettu kohdetiedostoon</t>
+  </si>
+  <si>
+    <t>Pakkaustehokkuus: 62.16 % (ei ota huomioon sanaston viemää tilaa)</t>
+  </si>
+  <si>
+    <t>Valmis! Suoritus kesti 134 ms.</t>
+  </si>
+  <si>
+    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto3_500k.huf on jo olemassa, poistetaan..</t>
+  </si>
+  <si>
+    <t>Ensimmäinen skannaus valmis, yhteensä luettu 581166 tavua... Konstruktoitu</t>
+  </si>
+  <si>
+    <t>Yhteensä 581166 tavua luettu lähdetiedostosta</t>
+  </si>
+  <si>
+    <t>Yhteensä 350522 tavua dataa kirjoitettu kohdetiedostoon</t>
+  </si>
+  <si>
+    <t>Pakkaustehokkuus: 60.31 % (ei ota huomioon sanaston viemää tilaa)</t>
+  </si>
+  <si>
+    <t>Valmis! Suoritus kesti 104 ms.</t>
+  </si>
+  <si>
+    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto4_20M.huf on jo olemassa, poistetaan..</t>
+  </si>
+  <si>
+    <t>Ensimmäinen skannaus valmis, yhteensä luettu 23924964 tavua... Konstruktoitu</t>
+  </si>
+  <si>
+    <t>Yhteensä 23924964 tavua luettu lähdetiedostosta</t>
+  </si>
+  <si>
+    <t>Yhteensä 14442627 tavua dataa kirjoitettu kohdetiedostoon</t>
+  </si>
+  <si>
+    <t>Pakkaustehokkuus: 60.37 % (ei ota huomioon sanaston viemää tilaa)</t>
+  </si>
+  <si>
+    <t>Valmis! Suoritus kesti 3240 ms.</t>
+  </si>
+  <si>
+    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto5_115M.huf on jo olemassa, poistetaan..</t>
+  </si>
+  <si>
+    <t>Ensimmäinen skannaus valmis, yhteensä luettu 118552713 tavua... Konstruktoitu</t>
+  </si>
+  <si>
+    <t>Yhteensä 118552713 tavua luettu lähdetiedostosta</t>
+  </si>
+  <si>
+    <t>Yhteensä 71694065 tavua dataa kirjoitettu kohdetiedostoon</t>
+  </si>
+  <si>
+    <t>Pakkaustehokkuus: 60.47 % (ei ota huomioon sanaston viemää tilaa)</t>
+  </si>
+  <si>
+    <t>Valmis! Suoritus kesti 15566 ms.</t>
+  </si>
+  <si>
+    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto1_4k.hpur on jo olemassa, poistetaan..</t>
+  </si>
+  <si>
+    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto1_4k.huf purku...</t>
+  </si>
+  <si>
+    <t>Pakkausalgoritmi: huffman</t>
+  </si>
+  <si>
+    <t>Puretaan 3475 tavua dataa...</t>
+  </si>
+  <si>
+    <t>Valmis! Suoritus kesti 30 ms.</t>
+  </si>
+  <si>
+    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto2_100k.hpur on jo olemassa, poistetaan..</t>
+  </si>
+  <si>
+    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto2_100k.huf purku...</t>
+  </si>
+  <si>
+    <t>Puretaan 97834 tavua dataa...</t>
+  </si>
+  <si>
+    <t>Valmis! Suoritus kesti 105 ms.</t>
+  </si>
+  <si>
+    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto3_500k.hpur on jo olemassa, poistetaan..</t>
+  </si>
+  <si>
+    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto3_500k.huf purku...</t>
+  </si>
+  <si>
+    <t>Puretaan 581166 tavua dataa...</t>
+  </si>
+  <si>
+    <t>Valmis! Suoritus kesti 342 ms.</t>
+  </si>
+  <si>
+    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto4_20M.hpur on jo olemassa, poistetaan..</t>
+  </si>
+  <si>
+    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto4_20M.huf purku...</t>
+  </si>
+  <si>
+    <t>Puretaan 23924964 tavua dataa...</t>
+  </si>
+  <si>
+    <t>Valmis! Suoritus kesti 13131 ms.</t>
+  </si>
+  <si>
+    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto5_115M.hpur on jo olemassa, poistetaan..</t>
+  </si>
+  <si>
+    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto5_115M.huf purku...</t>
+  </si>
+  <si>
+    <t>Puretaan 118552713 tavua dataa...</t>
+  </si>
+  <si>
+    <t>Valmis! Suoritus kesti 60939 ms.</t>
+  </si>
+  <si>
+    <t>Purku ms</t>
+  </si>
+  <si>
+    <t>Huffman-purkamisen aikavaativuus.</t>
+  </si>
+  <si>
+    <t>Huffman-pakkauksen aikavaativuus.</t>
+  </si>
+  <si>
+    <t>Koko (tavua)</t>
+  </si>
+  <si>
+    <t>LZW-pakkauksen aikavaativuus</t>
+  </si>
+  <si>
+    <t>Purku (ms)</t>
   </si>
 </sst>
 </file>
@@ -107,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -115,6 +327,7 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,6 +340,1004 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LZW-testit 3.12.'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Koko (tavua)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LZW-testit 3.12.'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>581166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23924964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118552713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="42676224"/>
+        <c:axId val="42708992"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LZW-testit 3.12.'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pakkaus ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LZW-testit 3.12.'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="101459456"/>
+        <c:axId val="8018944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="42676224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42708992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42708992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42676224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="8018944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101459456"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="101459456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="8018944"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LZW-testit 3.12.'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Koko (tavua)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LZW-testit 3.12.'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>581166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23924964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118552713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="57828864"/>
+        <c:axId val="57830400"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LZW-testit 3.12.'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Purku (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LZW-testit 3.12.'!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="100952320"/>
+        <c:axId val="100950016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57828864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57830400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57830400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57828864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="100950016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100952320"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="100952320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100950016"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Huffman 3.12'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Koko (tavua)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Huffman 3.12'!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>581166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23924964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118552713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="100420992"/>
+        <c:axId val="43742336"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Huffman 3.12'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pakkaus ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Huffman 3.12'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="101593088"/>
+        <c:axId val="43473536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="100420992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43742336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43742336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100420992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43473536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101593088"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="101593088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43473536"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Huffman 3.12'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Koko (tavua)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Huffman 3.12'!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>581166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23924964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118552713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="57578624"/>
+        <c:axId val="57580160"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Huffman 3.12'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Purku ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Huffman 3.12'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="43866368"/>
+        <c:axId val="43844352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57578624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57580160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57580160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57578624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43844352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43866368"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="43866368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43844352"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>301626</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601663</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436563</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>515938</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50006</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -672,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -860,7 +2071,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,4 +2542,698 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3494</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <f>B3/(A3/1024)</f>
+        <v>11.722953634802519</v>
+      </c>
+      <c r="D3">
+        <f>(A3/1024)/B3*1000</f>
+        <v>85.302734375</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <f>F3/(A3/1024)</f>
+        <v>2.3445907269605035</v>
+      </c>
+      <c r="H3">
+        <f>(A3/1024)/F3*1000</f>
+        <v>426.513671875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>97834</v>
+      </c>
+      <c r="B4">
+        <v>152</v>
+      </c>
+      <c r="C4">
+        <f>B4/(A4/1024)</f>
+        <v>1.5909397550953657</v>
+      </c>
+      <c r="D4">
+        <f>(A4/1024)/B4*1000</f>
+        <v>628.55931332236844</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>78</v>
+      </c>
+      <c r="G4">
+        <f>F4/(A4/1024)</f>
+        <v>0.81640329537788503</v>
+      </c>
+      <c r="H4">
+        <f>(A4/1024)/F4*1000</f>
+        <v>1224.8848157051282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>581166</v>
+      </c>
+      <c r="B5">
+        <v>438</v>
+      </c>
+      <c r="C5">
+        <f>B5/(A5/1024)</f>
+        <v>0.77174507799836878</v>
+      </c>
+      <c r="D5">
+        <f>(A5/1024)/B5*1000</f>
+        <v>1295.7646618150684</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <f>F5/(A5/1024)</f>
+        <v>0.12686220460247158</v>
+      </c>
+      <c r="H5">
+        <f>(A5/1024)/F5*1000</f>
+        <v>7882.568359375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>23924964</v>
+      </c>
+      <c r="B6">
+        <v>16489</v>
+      </c>
+      <c r="C6">
+        <f>B6/(A6/1024)</f>
+        <v>0.70573715387826708</v>
+      </c>
+      <c r="D6">
+        <f>(A6/1024)/B6*1000</f>
+        <v>1416.9581330735641</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>1278</v>
+      </c>
+      <c r="G6">
+        <f>F6/(A6/1024)</f>
+        <v>5.4699016475009118E-2</v>
+      </c>
+      <c r="H6">
+        <f>(A6/1024)/F6*1000</f>
+        <v>18281.86436326291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>118552713</v>
+      </c>
+      <c r="B7">
+        <v>85679</v>
+      </c>
+      <c r="C7">
+        <f>B7/(A7/1024)</f>
+        <v>0.74005304290252727</v>
+      </c>
+      <c r="D7">
+        <f>(A7/1024)/B7*1000</f>
+        <v>1351.2544939724146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>6085</v>
+      </c>
+      <c r="G7">
+        <f>F7/(A7/1024)</f>
+        <v>5.2559235822802301E-2</v>
+      </c>
+      <c r="H7">
+        <f>(A7/1024)/F7*1000</f>
+        <v>19026.151814143384</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3494</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <f>B4/(A4/1024)</f>
+        <v>14.946765884373212</v>
+      </c>
+      <c r="D4">
+        <f>(A4/1024)/B4*1000</f>
+        <v>66.904105392156865</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <f>F4/(A4/1024)</f>
+        <v>8.7922152261018898</v>
+      </c>
+      <c r="H4">
+        <f>(A4/1024)/F4*1000</f>
+        <v>113.73697916666667</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>97834</v>
+      </c>
+      <c r="B5">
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <f>B5/(A5/1024)</f>
+        <v>1.402538994623546</v>
+      </c>
+      <c r="D5">
+        <f>(A5/1024)/B5*1000</f>
+        <v>712.9926539179105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>105</v>
+      </c>
+      <c r="G5">
+        <f>F5/(A5/1024)</f>
+        <v>1.0990044360856144</v>
+      </c>
+      <c r="H5">
+        <f>(A5/1024)/F5*1000</f>
+        <v>909.91443452380952</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>581166</v>
+      </c>
+      <c r="B6">
+        <v>104</v>
+      </c>
+      <c r="C6">
+        <f>B6/(A6/1024)</f>
+        <v>0.1832454066480145</v>
+      </c>
+      <c r="D6">
+        <f>(A6/1024)/B6*1000</f>
+        <v>5457.1627103365381</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>342</v>
+      </c>
+      <c r="G6">
+        <f>F6/(A6/1024)</f>
+        <v>0.60259547186174001</v>
+      </c>
+      <c r="H6">
+        <f>(A6/1024)/F6*1000</f>
+        <v>1659.4880756578948</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>23924964</v>
+      </c>
+      <c r="B7">
+        <v>3240</v>
+      </c>
+      <c r="C7">
+        <f>B7/(A7/1024)</f>
+        <v>0.13867356289438931</v>
+      </c>
+      <c r="D7">
+        <f>(A7/1024)/B7*1000</f>
+        <v>7211.1798321759261</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>13131</v>
+      </c>
+      <c r="G7">
+        <f>F7/(A7/1024)</f>
+        <v>0.56201313406365005</v>
+      </c>
+      <c r="H7">
+        <f>(A7/1024)/F7*1000</f>
+        <v>1779.3178475554032</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>118552713</v>
+      </c>
+      <c r="B8">
+        <v>15566</v>
+      </c>
+      <c r="C8">
+        <f>B8/(A8/1024)</f>
+        <v>0.13445144861425481</v>
+      </c>
+      <c r="D8">
+        <f>(A8/1024)/B8*1000</f>
+        <v>7437.6290497920145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>60939</v>
+      </c>
+      <c r="G8">
+        <f>F8/(A8/1024)</f>
+        <v>0.52636109643479856</v>
+      </c>
+      <c r="H8">
+        <f>(A8/1024)/F8*1000</f>
+        <v>1899.8364559487766</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dokumentit/Testitulokset.xlsx
+++ b/Dokumentit/Testitulokset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="9765" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="11205" windowHeight="8190" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LZW 18.11" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Huffman 20.11" sheetId="4" r:id="rId4"/>
     <sheet name="LZW-testit 3.12." sheetId="5" r:id="rId5"/>
     <sheet name="Huffman 3.12" sheetId="6" r:id="rId6"/>
+    <sheet name="Huffman 7.12" sheetId="7" r:id="rId7"/>
+    <sheet name="LZW 7.12" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
   <si>
     <t>Purku</t>
   </si>
@@ -60,21 +62,6 @@
     <t>Purku kB / sec</t>
   </si>
   <si>
-    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto1_4k.txt pakkaus...</t>
-  </si>
-  <si>
-    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto2_100k.txt pakkaus...</t>
-  </si>
-  <si>
-    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto3_500k.xml pakkaus...</t>
-  </si>
-  <si>
-    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto4_20M.xml pakkaus...</t>
-  </si>
-  <si>
-    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto5_115M.xml pakkaus...</t>
-  </si>
-  <si>
     <t>Pakkaus %</t>
   </si>
   <si>
@@ -93,165 +80,6 @@
     <t>54,42</t>
   </si>
   <si>
-    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto1_4k.huf on jo olemassa, poistetaan..</t>
-  </si>
-  <si>
-    <t>Käytettävä pakkausalgoritmi: huffman</t>
-  </si>
-  <si>
-    <t>Ensimmäinen skannaus valmis, yhteensä luettu 3475 tavua... Konstruktoitu</t>
-  </si>
-  <si>
-    <t>Merkkitaulukot luotu</t>
-  </si>
-  <si>
-    <t>Yhteensä 3475 tavua luettu lähdetiedostosta</t>
-  </si>
-  <si>
-    <t>Yhteensä 2162 tavua dataa kirjoitettu kohdetiedostoon</t>
-  </si>
-  <si>
-    <t>Pakkaustehokkuus: 62.22 % (ei ota huomioon sanaston viemää tilaa)</t>
-  </si>
-  <si>
-    <t>Valmis! Suoritus kesti 51 ms.</t>
-  </si>
-  <si>
-    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto2_100k.huf on jo olemassa, poistetaan..</t>
-  </si>
-  <si>
-    <t>Ensimmäinen skannaus valmis, yhteensä luettu 97834 tavua... Konstruktoitu</t>
-  </si>
-  <si>
-    <t>Yhteensä 97834 tavua luettu lähdetiedostosta</t>
-  </si>
-  <si>
-    <t>Yhteensä 60817 tavua dataa kirjoitettu kohdetiedostoon</t>
-  </si>
-  <si>
-    <t>Pakkaustehokkuus: 62.16 % (ei ota huomioon sanaston viemää tilaa)</t>
-  </si>
-  <si>
-    <t>Valmis! Suoritus kesti 134 ms.</t>
-  </si>
-  <si>
-    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto3_500k.huf on jo olemassa, poistetaan..</t>
-  </si>
-  <si>
-    <t>Ensimmäinen skannaus valmis, yhteensä luettu 581166 tavua... Konstruktoitu</t>
-  </si>
-  <si>
-    <t>Yhteensä 581166 tavua luettu lähdetiedostosta</t>
-  </si>
-  <si>
-    <t>Yhteensä 350522 tavua dataa kirjoitettu kohdetiedostoon</t>
-  </si>
-  <si>
-    <t>Pakkaustehokkuus: 60.31 % (ei ota huomioon sanaston viemää tilaa)</t>
-  </si>
-  <si>
-    <t>Valmis! Suoritus kesti 104 ms.</t>
-  </si>
-  <si>
-    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto4_20M.huf on jo olemassa, poistetaan..</t>
-  </si>
-  <si>
-    <t>Ensimmäinen skannaus valmis, yhteensä luettu 23924964 tavua... Konstruktoitu</t>
-  </si>
-  <si>
-    <t>Yhteensä 23924964 tavua luettu lähdetiedostosta</t>
-  </si>
-  <si>
-    <t>Yhteensä 14442627 tavua dataa kirjoitettu kohdetiedostoon</t>
-  </si>
-  <si>
-    <t>Pakkaustehokkuus: 60.37 % (ei ota huomioon sanaston viemää tilaa)</t>
-  </si>
-  <si>
-    <t>Valmis! Suoritus kesti 3240 ms.</t>
-  </si>
-  <si>
-    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto5_115M.huf on jo olemassa, poistetaan..</t>
-  </si>
-  <si>
-    <t>Ensimmäinen skannaus valmis, yhteensä luettu 118552713 tavua... Konstruktoitu</t>
-  </si>
-  <si>
-    <t>Yhteensä 118552713 tavua luettu lähdetiedostosta</t>
-  </si>
-  <si>
-    <t>Yhteensä 71694065 tavua dataa kirjoitettu kohdetiedostoon</t>
-  </si>
-  <si>
-    <t>Pakkaustehokkuus: 60.47 % (ei ota huomioon sanaston viemää tilaa)</t>
-  </si>
-  <si>
-    <t>Valmis! Suoritus kesti 15566 ms.</t>
-  </si>
-  <si>
-    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto1_4k.hpur on jo olemassa, poistetaan..</t>
-  </si>
-  <si>
-    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto1_4k.huf purku...</t>
-  </si>
-  <si>
-    <t>Pakkausalgoritmi: huffman</t>
-  </si>
-  <si>
-    <t>Puretaan 3475 tavua dataa...</t>
-  </si>
-  <si>
-    <t>Valmis! Suoritus kesti 30 ms.</t>
-  </si>
-  <si>
-    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto2_100k.hpur on jo olemassa, poistetaan..</t>
-  </si>
-  <si>
-    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto2_100k.huf purku...</t>
-  </si>
-  <si>
-    <t>Puretaan 97834 tavua dataa...</t>
-  </si>
-  <si>
-    <t>Valmis! Suoritus kesti 105 ms.</t>
-  </si>
-  <si>
-    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto3_500k.hpur on jo olemassa, poistetaan..</t>
-  </si>
-  <si>
-    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto3_500k.huf purku...</t>
-  </si>
-  <si>
-    <t>Puretaan 581166 tavua dataa...</t>
-  </si>
-  <si>
-    <t>Valmis! Suoritus kesti 342 ms.</t>
-  </si>
-  <si>
-    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto4_20M.hpur on jo olemassa, poistetaan..</t>
-  </si>
-  <si>
-    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto4_20M.huf purku...</t>
-  </si>
-  <si>
-    <t>Puretaan 23924964 tavua dataa...</t>
-  </si>
-  <si>
-    <t>Valmis! Suoritus kesti 13131 ms.</t>
-  </si>
-  <si>
-    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto5_115M.hpur on jo olemassa, poistetaan..</t>
-  </si>
-  <si>
-    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto5_115M.huf purku...</t>
-  </si>
-  <si>
-    <t>Puretaan 118552713 tavua dataa...</t>
-  </si>
-  <si>
-    <t>Valmis! Suoritus kesti 60939 ms.</t>
-  </si>
-  <si>
     <t>Purku ms</t>
   </si>
   <si>
@@ -268,6 +96,63 @@
   </si>
   <si>
     <t>Purku (ms)</t>
+  </si>
+  <si>
+    <t>Pakkausalgoritmi: lzw</t>
+  </si>
+  <si>
+    <t>LZW purku aloitetaan</t>
+  </si>
+  <si>
+    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto5_20M.lzw purku...</t>
+  </si>
+  <si>
+    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto5_20M.lpur on jo olemassa, poistetaan..</t>
+  </si>
+  <si>
+    <t>Aloitetaan tiedoston C:/Huffman-tmp/testitiedosto6_115M.lzw purku...</t>
+  </si>
+  <si>
+    <t>55,02</t>
+  </si>
+  <si>
+    <t>Pakattu koko</t>
+  </si>
+  <si>
+    <t>Valmis! Suoritus kesti 1180 ms.</t>
+  </si>
+  <si>
+    <t>Kohdetiedosto C:/Huffman-tmp/testitiedosto6_115M.lpur on jo olemassa, poistetaan..</t>
+  </si>
+  <si>
+    <t>Valmis! Suoritus kesti 5581 ms.</t>
+  </si>
+  <si>
+    <t>Pakkaamaton Koko (tavua)</t>
+  </si>
+  <si>
+    <t>LZW-pakkauksen aikavaativuus.</t>
+  </si>
+  <si>
+    <t>LZW-purkamisen aikavaativuus.</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
   </si>
 </sst>
 </file>
@@ -307,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -315,11 +200,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -328,6 +228,28 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,8 +337,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42676224"/>
-        <c:axId val="42708992"/>
+        <c:axId val="89696896"/>
+        <c:axId val="99693312"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -474,11 +396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101459456"/>
-        <c:axId val="8018944"/>
+        <c:axId val="100352768"/>
+        <c:axId val="99695232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42676224"/>
+        <c:axId val="89696896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,7 +409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42708992"/>
+        <c:crossAx val="99693312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -495,7 +417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42708992"/>
+        <c:axId val="99693312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,12 +428,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42676224"/>
+        <c:crossAx val="89696896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8018944"/>
+        <c:axId val="99695232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,12 +443,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101459456"/>
+        <c:crossAx val="100352768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="101459456"/>
+        <c:axId val="100352768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,7 +457,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8018944"/>
+        <c:crossAx val="99695232"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -544,7 +467,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -632,8 +554,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57828864"/>
-        <c:axId val="57830400"/>
+        <c:axId val="100552064"/>
+        <c:axId val="100599296"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -691,11 +613,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100952320"/>
-        <c:axId val="100950016"/>
+        <c:axId val="100729600"/>
+        <c:axId val="100600832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57828864"/>
+        <c:axId val="100552064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57830400"/>
+        <c:crossAx val="100599296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -712,7 +634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57830400"/>
+        <c:axId val="100599296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,12 +645,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57828864"/>
+        <c:crossAx val="100552064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100950016"/>
+        <c:axId val="100600832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,12 +660,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100952320"/>
+        <c:crossAx val="100729600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="100952320"/>
+        <c:axId val="100729600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +674,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100950016"/>
+        <c:crossAx val="100600832"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -761,7 +684,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -849,8 +771,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100420992"/>
-        <c:axId val="43742336"/>
+        <c:axId val="101878016"/>
+        <c:axId val="102225792"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -908,11 +830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101593088"/>
-        <c:axId val="43473536"/>
+        <c:axId val="105493632"/>
+        <c:axId val="102227328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100420992"/>
+        <c:axId val="101878016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43742336"/>
+        <c:crossAx val="102225792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -929,7 +851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43742336"/>
+        <c:axId val="102225792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,12 +862,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100420992"/>
+        <c:crossAx val="101878016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43473536"/>
+        <c:axId val="102227328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,12 +877,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101593088"/>
+        <c:crossAx val="105493632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="101593088"/>
+        <c:axId val="105493632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,7 +891,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43473536"/>
+        <c:crossAx val="102227328"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1066,8 +989,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57578624"/>
-        <c:axId val="57580160"/>
+        <c:axId val="114515968"/>
+        <c:axId val="114517504"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1125,11 +1048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43866368"/>
-        <c:axId val="43844352"/>
+        <c:axId val="114533504"/>
+        <c:axId val="114519424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57578624"/>
+        <c:axId val="114515968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57580160"/>
+        <c:crossAx val="114517504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1146,7 +1069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57580160"/>
+        <c:axId val="114517504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,12 +1080,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57578624"/>
+        <c:crossAx val="114515968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43844352"/>
+        <c:axId val="114519424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,12 +1095,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43866368"/>
+        <c:crossAx val="114533504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="43866368"/>
+        <c:axId val="114533504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1109,877 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43844352"/>
+        <c:crossAx val="114519424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Huffman 7.12'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pakkaamaton Koko (tavua)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Huffman 7.12'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>182021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>581166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12981173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23924964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118552713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="116502912"/>
+        <c:axId val="116504832"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Huffman 7.12'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pakkaus ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Huffman 7.12'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="116639616"/>
+        <c:axId val="116637696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="116502912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116504832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116504832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116502912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116637696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116639616"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="116639616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116637696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Huffman 7.12'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pakkaamaton Koko (tavua)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Huffman 7.12'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>182021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>581166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12981173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23924964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118552713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="117025408"/>
+        <c:axId val="117027584"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Huffman 7.12'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Purku ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Huffman 7.12'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="117113600"/>
+        <c:axId val="117029888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="117025408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117027584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117027584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117025408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="117029888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117113600"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="117113600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117029888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LZW 7.12'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pakkaamaton Koko (tavua)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'LZW 7.12'!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>182021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>581166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12981174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23924964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118552713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="117615616"/>
+        <c:axId val="123564800"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LZW 7.12'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pakkaus ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LZW 7.12'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="144253312"/>
+        <c:axId val="123566720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="117615616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123564800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="123564800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117615616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="123566720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144253312"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="144253312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123566720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LZW 7.12'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pakkaamaton Koko (tavua)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LZW 7.12'!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>182021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>581166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12981174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23924964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118552713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="90470656"/>
+        <c:axId val="90472448"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LZW 7.12'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Purku (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LZW 7.12'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="90475520"/>
+        <c:axId val="90473984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="90470656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90472448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90472448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90470656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="90473984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90475520"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="90475520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90473984"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1323,6 +2116,136 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>280736</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>75197</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53068</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>357868</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19529</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>315058</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>70855</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2548,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,7 +3483,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -2572,10 +3495,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -2601,7 +3524,7 @@
         <v>85.302734375</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -2631,7 +3554,7 @@
         <v>628.55931332236844</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>78</v>
@@ -2661,7 +3584,7 @@
         <v>1295.7646618150684</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>72</v>
@@ -2691,7 +3614,7 @@
         <v>1416.9581330735641</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>1278</v>
@@ -2721,7 +3644,7 @@
         <v>1351.2544939724146</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>6085</v>
@@ -2737,7 +3660,7 @@
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2748,9 +3671,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A3:H42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2758,25 +3683,9 @@
     <col min="10" max="10" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2788,10 +3697,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -2799,14 +3708,8 @@
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3494</v>
       </c>
@@ -2821,9 +3724,6 @@
         <f>(A4/1024)/B4*1000</f>
         <v>66.904105392156865</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4">
         <v>30</v>
       </c>
@@ -2835,14 +3735,8 @@
         <f>(A4/1024)/F4*1000</f>
         <v>113.73697916666667</v>
       </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>97834</v>
       </c>
@@ -2857,9 +3751,6 @@
         <f>(A5/1024)/B5*1000</f>
         <v>712.9926539179105</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
       <c r="F5">
         <v>105</v>
       </c>
@@ -2871,14 +3762,8 @@
         <f>(A5/1024)/F5*1000</f>
         <v>909.91443452380952</v>
       </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>581166</v>
       </c>
@@ -2893,9 +3778,6 @@
         <f>(A6/1024)/B6*1000</f>
         <v>5457.1627103365381</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
       <c r="F6">
         <v>342</v>
       </c>
@@ -2907,11 +3789,8 @@
         <f>(A6/1024)/F6*1000</f>
         <v>1659.4880756578948</v>
       </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>23924964</v>
       </c>
@@ -2926,9 +3805,6 @@
         <f>(A7/1024)/B7*1000</f>
         <v>7211.1798321759261</v>
       </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
       <c r="F7">
         <v>13131</v>
       </c>
@@ -2940,14 +3816,8 @@
         <f>(A7/1024)/F7*1000</f>
         <v>1779.3178475554032</v>
       </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>118552713</v>
       </c>
@@ -2962,9 +3832,6 @@
         <f>(A8/1024)/B8*1000</f>
         <v>7437.6290497920145</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
       <c r="F8">
         <v>60939</v>
       </c>
@@ -2976,264 +3843,524 @@
         <f>(A8/1024)/F8*1000</f>
         <v>1899.8364559487766</v>
       </c>
-      <c r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J23" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" t="s">
-        <v>73</v>
-      </c>
-      <c r="K25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K49" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I41"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>182021</v>
+      </c>
+      <c r="B3" s="7">
+        <v>108737</v>
+      </c>
+      <c r="C3" s="8">
+        <v>170</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3/(A3/1024)</f>
+        <v>0.95637316573362419</v>
+      </c>
+      <c r="E3" s="9">
+        <f>(A3/1024)/C3*1000</f>
+        <v>1045.6169577205883</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="8">
+        <v>301</v>
+      </c>
+      <c r="H3" s="9">
+        <f>G3/(A3/1024)</f>
+        <v>1.6933430757989463</v>
+      </c>
+      <c r="I3" s="9">
+        <f>(A3/1024)/G3*1000</f>
+        <v>590.54778343023247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>581166</v>
+      </c>
+      <c r="B4" s="7">
+        <v>353545</v>
+      </c>
+      <c r="C4" s="8">
+        <v>190</v>
+      </c>
+      <c r="D4" s="9">
+        <f>C4/(A4/1024)</f>
+        <v>0.33477526214541115</v>
+      </c>
+      <c r="E4" s="9">
+        <f>(A4/1024)/C4*1000</f>
+        <v>2987.0785361842109</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="8">
+        <v>430</v>
+      </c>
+      <c r="H4" s="9">
+        <f>G4/(A4/1024)</f>
+        <v>0.75764927748698307</v>
+      </c>
+      <c r="I4" s="9">
+        <f>(A4/1024)/G4*1000</f>
+        <v>1319.8719113372092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>12981173</v>
+      </c>
+      <c r="B5" s="7">
+        <v>7548537</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1991</v>
+      </c>
+      <c r="D5" s="9">
+        <f>C5/(A5/1024)</f>
+        <v>0.15705699323165942</v>
+      </c>
+      <c r="E5" s="9">
+        <f>(A5/1024)/C5*1000</f>
+        <v>6367.1153981981415</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8">
+        <v>9140</v>
+      </c>
+      <c r="H5" s="9">
+        <f>G5/(A5/1024)</f>
+        <v>0.72099493628195233</v>
+      </c>
+      <c r="I5" s="9">
+        <f>(A5/1024)/G5*1000</f>
+        <v>1386.9722929772977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>23924964</v>
+      </c>
+      <c r="B6" s="7">
+        <v>14445670</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3021</v>
+      </c>
+      <c r="D6" s="9">
+        <f>C6/(A6/1024)</f>
+        <v>0.12930025725430558</v>
+      </c>
+      <c r="E6" s="9">
+        <f>(A6/1024)/C6*1000</f>
+        <v>7733.9366621151939</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="8">
+        <v>15371</v>
+      </c>
+      <c r="H6" s="9">
+        <f>G6/(A6/1024)</f>
+        <v>0.65788621458322782</v>
+      </c>
+      <c r="I6" s="9">
+        <f>(A6/1024)/G6*1000</f>
+        <v>1520.0196900819724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>118552713</v>
+      </c>
+      <c r="B7" s="7">
+        <v>71697108</v>
+      </c>
+      <c r="C7" s="8">
+        <v>14452</v>
+      </c>
+      <c r="D7" s="9">
+        <f>C7/(A7/1024)</f>
+        <v>0.12482926476764812</v>
+      </c>
+      <c r="E7" s="9">
+        <f>(A7/1024)/C7*1000</f>
+        <v>8010.9420003502973</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="8">
+        <v>70202</v>
+      </c>
+      <c r="H7" s="9">
+        <f>G7/(A7/1024)</f>
+        <v>0.60637033249504801</v>
+      </c>
+      <c r="I7" s="9">
+        <f>(A7/1024)/G7*1000</f>
+        <v>1649.1572004937539</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:M88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>182021</v>
+      </c>
+      <c r="B4" s="8">
+        <v>260</v>
+      </c>
+      <c r="C4" s="9">
+        <f>B4/(A4/1024)</f>
+        <v>1.4626883711220133</v>
+      </c>
+      <c r="D4" s="9">
+        <f>(A4/1024)/B4*1000</f>
+        <v>683.67262620192309</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="8">
+        <v>91</v>
+      </c>
+      <c r="G4" s="9">
+        <f>F4/(A4/1024)</f>
+        <v>0.51194092989270468</v>
+      </c>
+      <c r="H4" s="9">
+        <f>(A4/1024)/F4*1000</f>
+        <v>1953.3503605769231</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>581166</v>
+      </c>
+      <c r="B5" s="8">
+        <v>470</v>
+      </c>
+      <c r="C5" s="9">
+        <f>B5/(A5/1024)</f>
+        <v>0.8281282800439117</v>
+      </c>
+      <c r="D5" s="9">
+        <f>(A5/1024)/B5*1000</f>
+        <v>1207.5423869680851</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9">
+        <f>F5/(A5/1024)</f>
+        <v>7.0479002556928655E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <f>(A5/1024)/F5*1000</f>
+        <v>14188.623046875</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>12981174</v>
+      </c>
+      <c r="B6" s="8">
+        <v>8801</v>
+      </c>
+      <c r="C6" s="9">
+        <f>B6/(A6/1024)</f>
+        <v>0.69425338571072226</v>
+      </c>
+      <c r="D6" s="9">
+        <f>(A6/1024)/B6*1000</f>
+        <v>1440.3962884189295</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8">
+        <v>720</v>
+      </c>
+      <c r="G6" s="9">
+        <f>F6/(A6/1024)</f>
+        <v>5.6796095638191123E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <f>(A6/1024)/F6*1000</f>
+        <v>17606.844075520832</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>23924964</v>
+      </c>
+      <c r="B7" s="8">
+        <v>15931</v>
+      </c>
+      <c r="C7" s="9">
+        <f>B7/(A7/1024)</f>
+        <v>0.68185448471312227</v>
+      </c>
+      <c r="D7" s="9">
+        <f>(A7/1024)/B7*1000</f>
+        <v>1466.5885792636998</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1130</v>
+      </c>
+      <c r="G7" s="9">
+        <f>F7/(A7/1024)</f>
+        <v>4.8364545083537012E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <f>(A7/1024)/F7*1000</f>
+        <v>20676.303235619467</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>118552713</v>
+      </c>
+      <c r="B8" s="8">
+        <v>78632</v>
+      </c>
+      <c r="C8" s="9">
+        <f>B8/(A8/1024)</f>
+        <v>0.67918452444019561</v>
+      </c>
+      <c r="D8" s="9">
+        <f>(A8/1024)/B8*1000</f>
+        <v>1472.3539244717481</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5561</v>
+      </c>
+      <c r="G8" s="9">
+        <f>F8/(A8/1024)</f>
+        <v>4.8033181661561807E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <f>(A8/1024)/F8*1000</f>
+        <v>20818.941519342297</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>